--- a/files/Poses - Practice Input.xlsx
+++ b/files/Poses - Practice Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebray\Downloads\ADMTools-MWE-for-Jay\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebray\Downloads\ADMTools-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD143DB-2465-42BC-955B-E8777A179DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F79A5-4990-4B46-A891-6FFA57216D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>PR1</t>
   </si>
@@ -61,21 +61,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>del X (HTSA CS)</t>
-  </si>
-  <si>
-    <t>del Y</t>
-  </si>
-  <si>
-    <t>del Z</t>
-  </si>
-  <si>
-    <t>Rx from home (GSA CS) deg</t>
-  </si>
-  <si>
-    <t>RY (deg)</t>
   </si>
   <si>
     <t>X</t>
@@ -748,7 +733,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
@@ -797,7 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -1158,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD6C6D-A849-427B-939C-0D3186190234}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1164,7 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="15"/>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1188,7 +1172,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="23">
         <v>1402.123</v>
@@ -1198,9 +1182,8 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="F4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -1214,12 +1197,12 @@
         <v>6</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="24">
         <v>1.736</v>
@@ -1234,18 +1217,18 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="21">
         <v>-24.285540000000001</v>
@@ -1260,7 +1243,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="20">
         <v>-24.285640000000001</v>
@@ -1275,7 +1258,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="20">
         <v>-11.1035</v>
@@ -1286,21 +1269,21 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="23">
         <v>1.3107</v>
@@ -1317,7 +1300,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="I14" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="18"/>
@@ -1332,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1361,38 +1344,38 @@
         <v>9</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>0.94359386999999995</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>1.280694708</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>-0.338385936</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>3.1452722000000002E-2</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>3.5137091000000002E-2</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -1418,19 +1401,19 @@
       <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>-109.5057494</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>-45.867073900000001</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>22.370475460000002</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>-4.9117316840000003</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>10.680265869999999</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1456,19 +1439,19 @@
       <c r="B19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>111.30905490000001</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>-45.37333727</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>22.058457839999999</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>-4.8570772289999997</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>-10.600320930000001</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -1494,19 +1477,19 @@
       <c r="B20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>103.0768005</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>59.765562459999998</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>30.696043549999999</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>5.3079847420000004</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>-10.31199775</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1532,19 +1515,19 @@
       <c r="B21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>-101.4305798</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>59.402250389999999</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>30.80909552</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>5.2697831060000002</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>10.410042929999999</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -1575,16 +1558,16 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1596,13 +1579,13 @@
       <c r="B24" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>1.7359984980000001</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>0.61257292600000002</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <v>1292.037149</v>
       </c>
       <c r="Q24" s="5"/>
@@ -1615,13 +1598,13 @@
       <c r="B25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>129.96103830000001</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>59.399613610000003</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>1278.1949460000001</v>
       </c>
       <c r="Q25" s="5"/>
@@ -1634,13 +1617,13 @@
       <c r="B26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>-126.38583010000001</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>58.76557717</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <v>1278.4186790000001</v>
       </c>
       <c r="Q26" s="5"/>
@@ -1653,13 +1636,13 @@
       <c r="B27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>-128.2238596</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>-64.867402299999995</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>1307.4319250000001</v>
       </c>
     </row>
@@ -1667,13 +1650,13 @@
       <c r="B28" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>132.04512149999999</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>-64.365169969999997</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>1307.1550380000001</v>
       </c>
     </row>
@@ -1791,15 +1774,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d900e117-17a0-4b24-9e47-511ef1d02c43" xsi:nil="true"/>
@@ -1808,6 +1782,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,20 +2010,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4096F0E8-EBE2-4E65-92AE-91FCE6AF7546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE53DFD-1010-4577-A048-F3BE7C647269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d900e117-17a0-4b24-9e47-511ef1d02c43"/>
     <ds:schemaRef ds:uri="01eee777-8602-42d0-a9c8-03c6289e8509"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4096F0E8-EBE2-4E65-92AE-91FCE6AF7546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/files/Poses - Practice Input.xlsx
+++ b/files/Poses - Practice Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebray\Downloads\ADMTools-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F79A5-4990-4B46-A891-6FFA57216D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C00BD7-1CA4-46E6-A9A0-2C617B4A0CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input for Tyler analysis" sheetId="6" r:id="rId1"/>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
-  <si>
-    <t>PR1</t>
-  </si>
-  <si>
-    <t>PR5</t>
-  </si>
-  <si>
-    <t>PR2</t>
-  </si>
-  <si>
-    <t>PR3</t>
-  </si>
-  <si>
-    <t>PR4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -121,6 +106,27 @@
   </si>
   <si>
     <t>Blue = Optional</t>
+  </si>
+  <si>
+    <t>Pose 1</t>
+  </si>
+  <si>
+    <t>Pose 2</t>
+  </si>
+  <si>
+    <t>3 Pose</t>
+  </si>
+  <si>
+    <t>Pose 99</t>
+  </si>
+  <si>
+    <t>Pose 10</t>
+  </si>
+  <si>
+    <t>Pose 11</t>
+  </si>
+  <si>
+    <t>great googly moogly</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
@@ -783,6 +789,9 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,69 +1149,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD6C6D-A849-427B-939C-0D3186190234}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.44140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="15"/>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="23">
         <v>1402.123</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="F4" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="24">
         <v>1.736</v>
@@ -1214,21 +1223,21 @@
         <v>1267.7130999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="21">
         <v>-24.285540000000001</v>
@@ -1241,9 +1250,9 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20">
         <v>-24.285640000000001</v>
@@ -1256,9 +1265,9 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="20">
         <v>-11.1035</v>
@@ -1267,23 +1276,23 @@
       <c r="D10" s="21"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="23">
         <v>1.3107</v>
@@ -1295,12 +1304,12 @@
         <v>598.54960000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="I14" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="18"/>
@@ -1310,58 +1319,58 @@
       <c r="O14" s="18"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="G16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>0</v>
       </c>
       <c r="C17" s="28">
         <v>0.94359386999999995</v>
@@ -1378,8 +1387,8 @@
       <c r="G17" s="28">
         <v>3.5137091000000002E-2</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>0</v>
+      <c r="I17" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="23">
         <v>0.91582805700000003</v>
@@ -1397,9 +1406,9 @@
         <v>3.5897834000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C18" s="28">
         <v>-109.5057494</v>
@@ -1416,8 +1425,8 @@
       <c r="G18" s="28">
         <v>10.680265869999999</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>2</v>
+      <c r="I18" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="J18" s="23">
         <v>-109.47599030000001</v>
@@ -1435,9 +1444,9 @@
         <v>10.683385039999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C19" s="28">
         <v>111.30905490000001</v>
@@ -1454,8 +1463,8 @@
       <c r="G19" s="28">
         <v>-10.600320930000001</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>3</v>
+      <c r="I19" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="J19" s="23">
         <v>111.188948</v>
@@ -1473,9 +1482,9 @@
         <v>-10.59631817</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C20" s="28">
         <v>103.0768005</v>
@@ -1492,8 +1501,8 @@
       <c r="G20" s="28">
         <v>-10.31199775</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>4</v>
+      <c r="I20" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="23">
         <v>102.952223</v>
@@ -1511,9 +1520,9 @@
         <v>-10.315476070000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C21" s="28">
         <v>-101.4305798</v>
@@ -1530,8 +1539,8 @@
       <c r="G21" s="28">
         <v>10.410042929999999</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>1</v>
+      <c r="I21" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="J21" s="23">
         <v>-101.4162156</v>
@@ -1549,223 +1558,399 @@
         <v>10.40590388</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="28">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="28">
+        <v>-109.5057494</v>
+      </c>
+      <c r="D22" s="28">
+        <v>-45.867073900000001</v>
+      </c>
+      <c r="E22" s="28">
+        <v>22.370475460000002</v>
+      </c>
+      <c r="F22" s="28">
+        <v>-4.9117316840000003</v>
+      </c>
+      <c r="G22" s="28">
+        <v>10.680265869999999</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="23">
+        <v>-109.47599030000001</v>
+      </c>
+      <c r="K22" s="23">
+        <v>-45.798775499999998</v>
+      </c>
+      <c r="L22" s="23">
+        <v>22.414906609999999</v>
+      </c>
+      <c r="M22" s="23">
+        <v>-4.9046629340000001</v>
+      </c>
+      <c r="N22" s="23">
+        <v>10.683385039999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="28">
+        <v>-109.5057494</v>
+      </c>
+      <c r="D23" s="28">
+        <v>-45.867073900000001</v>
+      </c>
+      <c r="E23" s="28">
+        <v>22.370475460000002</v>
+      </c>
+      <c r="F23" s="28">
+        <v>-4.9117316840000003</v>
+      </c>
+      <c r="G23" s="28">
+        <v>10.680265869999999</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="23">
+        <v>-109.47599030000001</v>
+      </c>
+      <c r="K23" s="23">
+        <v>-45.798775499999998</v>
+      </c>
+      <c r="L23" s="23">
+        <v>22.414906609999999</v>
+      </c>
+      <c r="M23" s="23">
+        <v>-4.9046629340000001</v>
+      </c>
+      <c r="N23" s="23">
+        <v>10.683385039999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="30" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="28">
         <v>1.7359984980000001</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D32" s="28">
         <v>0.61257292600000002</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E32" s="28">
         <v>1292.037149</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="28">
         <v>129.96103830000001</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D33" s="28">
         <v>59.399613610000003</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E33" s="28">
         <v>1278.1949460000001</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="28">
         <v>-126.38583010000001</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D34" s="28">
         <v>58.76557717</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E34" s="28">
         <v>1278.4186790000001</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="28">
         <v>-128.2238596</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D35" s="28">
         <v>-64.867402299999995</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E35" s="28">
         <v>1307.4319250000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="28">
         <v>132.04512149999999</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D36" s="28">
         <v>-64.365169969999997</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E36" s="28">
         <v>1307.1550380000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-    </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="28">
+        <v>129.96103830000001</v>
+      </c>
+      <c r="D37" s="28">
+        <v>59.399613610000003</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1278.1949460000001</v>
+      </c>
       <c r="N37"/>
     </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-    </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="28">
+        <v>129.96103830000001</v>
+      </c>
+      <c r="D38" s="28">
+        <v>59.399613610000003</v>
+      </c>
+      <c r="E38" s="28">
+        <v>1278.1949460000001</v>
+      </c>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,6 +1959,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d900e117-17a0-4b24-9e47-511ef1d02c43" xsi:nil="true"/>
@@ -1782,15 +1976,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2010,20 +2195,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4096F0E8-EBE2-4E65-92AE-91FCE6AF7546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE53DFD-1010-4577-A048-F3BE7C647269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d900e117-17a0-4b24-9e47-511ef1d02c43"/>
     <ds:schemaRef ds:uri="01eee777-8602-42d0-a9c8-03c6289e8509"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4096F0E8-EBE2-4E65-92AE-91FCE6AF7546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
